--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H2">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I2">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J2">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>42125.45786011285</v>
+        <v>36890.64512017214</v>
       </c>
       <c r="R2">
-        <v>168501.8314404514</v>
+        <v>147562.5804806886</v>
       </c>
       <c r="S2">
-        <v>0.09995482102695592</v>
+        <v>0.1505381305691247</v>
       </c>
       <c r="T2">
-        <v>0.06416068606075306</v>
+        <v>0.1073317866671329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H3">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I3">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J3">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>30399.10480498958</v>
+        <v>21737.37319638944</v>
       </c>
       <c r="R3">
-        <v>182394.6288299375</v>
+        <v>130424.2391783366</v>
       </c>
       <c r="S3">
-        <v>0.07213066004534743</v>
+        <v>0.08870280023047195</v>
       </c>
       <c r="T3">
-        <v>0.06945066661581592</v>
+        <v>0.09486596513907088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H4">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I4">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J4">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>21636.93310514814</v>
+        <v>14205.45562240241</v>
       </c>
       <c r="R4">
-        <v>129821.5986308889</v>
+        <v>85232.73373441449</v>
       </c>
       <c r="S4">
-        <v>0.05133987583658055</v>
+        <v>0.05796761553811348</v>
       </c>
       <c r="T4">
-        <v>0.04943235787087085</v>
+        <v>0.06199526712285933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H5">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I5">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J5">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>35811.14015666138</v>
+        <v>31488.34442607942</v>
       </c>
       <c r="R5">
-        <v>143244.5606266455</v>
+        <v>125953.3777043177</v>
       </c>
       <c r="S5">
-        <v>0.08497227773800944</v>
+        <v>0.128493185445183</v>
       </c>
       <c r="T5">
-        <v>0.05454343852354328</v>
+        <v>0.09161401909431797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H6">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I6">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J6">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>31159.04346776215</v>
+        <v>10954.72906179185</v>
       </c>
       <c r="R6">
-        <v>186954.2608065729</v>
+        <v>65728.37437075112</v>
       </c>
       <c r="S6">
-        <v>0.07393383410890628</v>
+        <v>0.04470251003964312</v>
       </c>
       <c r="T6">
-        <v>0.07118684427812734</v>
+        <v>0.04780848798494787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>255.961578</v>
+        <v>183.02948</v>
       </c>
       <c r="H7">
-        <v>511.9231559999999</v>
+        <v>366.05896</v>
       </c>
       <c r="I7">
-        <v>0.4306976391465507</v>
+        <v>0.5348320103457603</v>
       </c>
       <c r="J7">
-        <v>0.3553431329241539</v>
+        <v>0.4725198044170354</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>20383.67986373723</v>
+        <v>15788.57087894739</v>
       </c>
       <c r="R7">
-        <v>122302.0791824234</v>
+        <v>94731.4252736843</v>
       </c>
       <c r="S7">
-        <v>0.04836617039075103</v>
+        <v>0.0644277685232242</v>
       </c>
       <c r="T7">
-        <v>0.04656913957504347</v>
+        <v>0.06890427840870648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>268.695167</v>
       </c>
       <c r="I8">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J8">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>14740.37239380056</v>
+        <v>18052.35246129456</v>
       </c>
       <c r="R8">
-        <v>88442.23436280336</v>
+        <v>108314.1147677673</v>
       </c>
       <c r="S8">
-        <v>0.03497579277086272</v>
+        <v>0.07366548844688621</v>
       </c>
       <c r="T8">
-        <v>0.03367627749178945</v>
+        <v>0.07878384493834993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>268.695167</v>
       </c>
       <c r="I9">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J9">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>10637.13364853426</v>
       </c>
       <c r="R9">
-        <v>95734.20283680833</v>
+        <v>95734.20283680834</v>
       </c>
       <c r="S9">
-        <v>0.02523967320687074</v>
+        <v>0.04340651156541249</v>
       </c>
       <c r="T9">
-        <v>0.0364528508739659</v>
+        <v>0.06963366323736161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>268.695167</v>
       </c>
       <c r="I10">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J10">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>7571.109434317274</v>
+        <v>6951.407082568531</v>
       </c>
       <c r="R10">
-        <v>68139.98490885546</v>
+        <v>62562.66374311678</v>
       </c>
       <c r="S10">
-        <v>0.0179646448234629</v>
+        <v>0.02836631952696946</v>
       </c>
       <c r="T10">
-        <v>0.02594576060418999</v>
+        <v>0.04550586236923772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>268.695167</v>
       </c>
       <c r="I11">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J11">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>12530.89149816923</v>
+        <v>15408.74902432645</v>
       </c>
       <c r="R11">
-        <v>75185.34898901536</v>
+        <v>92452.49414595867</v>
       </c>
       <c r="S11">
-        <v>0.02973316091108127</v>
+        <v>0.06287784518201732</v>
       </c>
       <c r="T11">
-        <v>0.02862843407465963</v>
+        <v>0.06724666474517918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>268.695167</v>
       </c>
       <c r="I12">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J12">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>10903.04835794614</v>
+        <v>5360.671506211123</v>
       </c>
       <c r="R12">
-        <v>98127.43522151529</v>
+        <v>48246.0435559001</v>
       </c>
       <c r="S12">
-        <v>0.02587063269165457</v>
+        <v>0.02187507061780628</v>
       </c>
       <c r="T12">
-        <v>0.03736412543040819</v>
+        <v>0.03509246068757083</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>268.695167</v>
       </c>
       <c r="I13">
-        <v>0.1507080020645237</v>
+        <v>0.2617188158920261</v>
       </c>
       <c r="J13">
-        <v>0.1865103801699463</v>
+        <v>0.3468397215537155</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>7132.576052829061</v>
+        <v>7726.100897352902</v>
       </c>
       <c r="R13">
-        <v>64193.18447546155</v>
+        <v>69534.90807617611</v>
       </c>
       <c r="S13">
-        <v>0.01692409766059148</v>
+        <v>0.03152758055293437</v>
       </c>
       <c r="T13">
-        <v>0.02444293169493317</v>
+        <v>0.05057722557601618</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H14">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I14">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J14">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>22.12796260962666</v>
+        <v>24.53907730586584</v>
       </c>
       <c r="R14">
-        <v>132.76777565776</v>
+        <v>147.234463835195</v>
       </c>
       <c r="S14">
-        <v>5.250498522012932E-05</v>
+        <v>0.0001001355983741343</v>
       </c>
       <c r="T14">
-        <v>5.055417795843045E-05</v>
+        <v>0.0001070931262582316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H15">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I15">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J15">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>15.96825978069333</v>
+        <v>14.45935899345333</v>
       </c>
       <c r="R15">
-        <v>143.7143380262399</v>
+        <v>130.13423094108</v>
       </c>
       <c r="S15">
-        <v>3.788931039732239E-05</v>
+        <v>5.9003708528591E-05</v>
       </c>
       <c r="T15">
-        <v>5.472231634342304E-05</v>
+        <v>9.465502343453073E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H16">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I16">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J16">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>11.36560339184</v>
+        <v>9.449245806020556</v>
       </c>
       <c r="R16">
-        <v>102.29043052656</v>
+        <v>85.04321225418502</v>
       </c>
       <c r="S16">
-        <v>2.696817816597345E-05</v>
+        <v>3.855914675096467E-05</v>
       </c>
       <c r="T16">
-        <v>3.894927517362482E-05</v>
+        <v>6.185741592089088E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H17">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I17">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J17">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>18.81113252290666</v>
+        <v>20.9455517947225</v>
       </c>
       <c r="R17">
-        <v>112.86679513744</v>
+        <v>125.673310768335</v>
       </c>
       <c r="S17">
-        <v>4.463484743323923E-05</v>
+        <v>8.547164736872961E-05</v>
       </c>
       <c r="T17">
-        <v>4.297645282304131E-05</v>
+        <v>9.141030833968433E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H18">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I18">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J18">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>16.36744581141333</v>
+        <v>7.286913591140555</v>
       </c>
       <c r="R18">
-        <v>147.30701230272</v>
+        <v>65.582222320265</v>
       </c>
       <c r="S18">
-        <v>3.883649460098322E-05</v>
+        <v>2.973540706744701E-05</v>
       </c>
       <c r="T18">
-        <v>5.609030412374126E-05</v>
+        <v>4.770218216776414E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1344533333333333</v>
+        <v>0.1217483333333333</v>
       </c>
       <c r="H19">
-        <v>0.4033599999999999</v>
+        <v>0.365245</v>
       </c>
       <c r="I19">
-        <v>0.0002262399446609557</v>
+        <v>0.0003557618470691848</v>
       </c>
       <c r="J19">
-        <v>0.0002799857838356636</v>
+        <v>0.0004714691206146139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>10.70728554142222</v>
+        <v>10.50230919208778</v>
       </c>
       <c r="R19">
-        <v>96.36556987279999</v>
+        <v>94.52078272879</v>
       </c>
       <c r="S19">
-        <v>2.540612884330805E-05</v>
+        <v>4.28563389793182E-05</v>
       </c>
       <c r="T19">
-        <v>3.669325741340276E-05</v>
+        <v>6.875106449351221E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H20">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I20">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J20">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>14199.68024108381</v>
+        <v>13893.42668124639</v>
       </c>
       <c r="R20">
-        <v>56798.72096433525</v>
+        <v>55573.70672498558</v>
       </c>
       <c r="S20">
-        <v>0.03369284440422537</v>
+        <v>0.05669433193648284</v>
       </c>
       <c r="T20">
-        <v>0.02162733112923407</v>
+        <v>0.04042234294817427</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H21">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I21">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J21">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>10246.95255015301</v>
+        <v>8186.53617368668</v>
       </c>
       <c r="R21">
-        <v>61481.71530091805</v>
+        <v>49119.21704212008</v>
       </c>
       <c r="S21">
-        <v>0.02431385580718077</v>
+        <v>0.033406459751755</v>
       </c>
       <c r="T21">
-        <v>0.02341048165576089</v>
+        <v>0.03572757610803222</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H22">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I22">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J22">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>7293.39328515019</v>
+        <v>5349.932361460053</v>
       </c>
       <c r="R22">
-        <v>43760.35971090114</v>
+        <v>32099.59416876032</v>
       </c>
       <c r="S22">
-        <v>0.01730568301280504</v>
+        <v>0.02183124783375165</v>
       </c>
       <c r="T22">
-        <v>0.01666269545746151</v>
+        <v>0.02334810615401111</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H23">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I23">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J23">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>12071.24539706701</v>
+        <v>11858.8602387533</v>
       </c>
       <c r="R23">
-        <v>48284.98158826806</v>
+        <v>47435.44095501321</v>
       </c>
       <c r="S23">
-        <v>0.02864251772035378</v>
+        <v>0.04839196075880701</v>
       </c>
       <c r="T23">
-        <v>0.01838554227363957</v>
+        <v>0.03450285710957159</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H24">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I24">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J24">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>10503.11323213398</v>
+        <v>4125.672634271731</v>
       </c>
       <c r="R24">
-        <v>63018.6793928039</v>
+        <v>24754.03580563039</v>
       </c>
       <c r="S24">
-        <v>0.02492167104343474</v>
+        <v>0.01683546177304054</v>
       </c>
       <c r="T24">
-        <v>0.02399571369593007</v>
+        <v>0.01800520756404227</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.27971649999999</v>
+        <v>68.93093500000001</v>
       </c>
       <c r="H25">
-        <v>172.559433</v>
+        <v>137.86187</v>
       </c>
       <c r="I25">
-        <v>0.1451798761874475</v>
+        <v>0.2014236752520028</v>
       </c>
       <c r="J25">
-        <v>0.1197793239457127</v>
+        <v>0.1779562064235957</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>6870.945763078577</v>
+        <v>5946.151150074923</v>
       </c>
       <c r="R25">
-        <v>41225.67457847147</v>
+        <v>35676.90690044954</v>
       </c>
       <c r="S25">
-        <v>0.01630330419944783</v>
+        <v>0.02426421319816575</v>
       </c>
       <c r="T25">
-        <v>0.0156975597336866</v>
+        <v>0.02595011653976425</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H26">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I26">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J26">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>26672.8117167517</v>
+        <v>95.21621541798483</v>
       </c>
       <c r="R26">
-        <v>160036.8703005102</v>
+        <v>571.297292507909</v>
       </c>
       <c r="S26">
-        <v>0.06328895297202279</v>
+        <v>0.0003885448742411046</v>
       </c>
       <c r="T26">
-        <v>0.06093747056467592</v>
+        <v>0.0004155413853784848</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H27">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I27">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J27">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>19247.97117965656</v>
+        <v>56.10502072127733</v>
       </c>
       <c r="R27">
-        <v>173231.740616909</v>
+        <v>504.945186491496</v>
       </c>
       <c r="S27">
-        <v>0.04567137337197415</v>
+        <v>0.0002289454388073244</v>
       </c>
       <c r="T27">
-        <v>0.06596170041871167</v>
+        <v>0.000367279217119638</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H28">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I28">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J28">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>13699.97792683985</v>
+        <v>36.66484330233855</v>
       </c>
       <c r="R28">
-        <v>123299.8013415586</v>
+        <v>329.983589721047</v>
       </c>
       <c r="S28">
-        <v>0.03250715627347855</v>
+        <v>0.0001496167104252088</v>
       </c>
       <c r="T28">
-        <v>0.04694904368457688</v>
+        <v>0.0002400183579076758</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H29">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I29">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J29">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>22674.73986710696</v>
+        <v>81.27266346962949</v>
       </c>
       <c r="R29">
-        <v>136048.4392026417</v>
+        <v>487.635980817777</v>
       </c>
       <c r="S29">
-        <v>0.05380237225612406</v>
+        <v>0.0003316459981991913</v>
       </c>
       <c r="T29">
-        <v>0.05180336096121879</v>
+        <v>0.0003546891149087847</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H30">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I30">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J30">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>19729.14579230345</v>
+        <v>28.27458936528255</v>
       </c>
       <c r="R30">
-        <v>177562.3121307311</v>
+        <v>254.471304287543</v>
       </c>
       <c r="S30">
-        <v>0.04681309917705734</v>
+        <v>0.0001153789480176872</v>
       </c>
       <c r="T30">
-        <v>0.0676106583973089</v>
+        <v>0.000185093400072873</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>162.0686236666667</v>
+        <v>0.4724063333333333</v>
       </c>
       <c r="H31">
-        <v>486.205871</v>
+        <v>1.417219</v>
       </c>
       <c r="I31">
-        <v>0.2727072326181867</v>
+        <v>0.001380422590703618</v>
       </c>
       <c r="J31">
-        <v>0.3374918978020542</v>
+        <v>0.001829388480741207</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>12906.44856384594</v>
+        <v>40.75092644909977</v>
       </c>
       <c r="R31">
-        <v>116158.0370746135</v>
+        <v>366.758338041898</v>
       </c>
       <c r="S31">
-        <v>0.0306242785675298</v>
+        <v>0.0001662906210131018</v>
       </c>
       <c r="T31">
-        <v>0.04422966377556202</v>
+        <v>0.0002667670053537512</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H32">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I32">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J32">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>47.046387699671</v>
+        <v>19.95576661104767</v>
       </c>
       <c r="R32">
-        <v>282.278326198026</v>
+        <v>119.734599666286</v>
       </c>
       <c r="S32">
-        <v>0.0001116311489859922</v>
+        <v>8.143267188510622E-05</v>
       </c>
       <c r="T32">
-        <v>0.000107483526523846</v>
+        <v>8.709070054340921E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H33">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I33">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J33">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>33.950208330736</v>
+        <v>11.75869776284267</v>
       </c>
       <c r="R33">
-        <v>305.5518749766239</v>
+        <v>105.828279865584</v>
       </c>
       <c r="S33">
-        <v>8.055667926020955E-05</v>
+        <v>4.798323188384036E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001163454293526646</v>
+        <v>7.69757368086214E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H34">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I34">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J34">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>24.164474291934</v>
+        <v>7.684353474459779</v>
       </c>
       <c r="R34">
-        <v>217.480268627406</v>
+        <v>69.15918127013801</v>
       </c>
       <c r="S34">
-        <v>5.733719764142332E-05</v>
+        <v>3.135722357007497E-05</v>
       </c>
       <c r="T34">
-        <v>8.281027642564511E-05</v>
+        <v>5.030393522517361E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H35">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I35">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J35">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>39.994456306499</v>
+        <v>17.033425419593</v>
       </c>
       <c r="R35">
-        <v>239.966737838994</v>
+        <v>102.200552517558</v>
       </c>
       <c r="S35">
-        <v>9.489840408290833E-05</v>
+        <v>6.950759498786919E-05</v>
       </c>
       <c r="T35">
-        <v>9.137248182938492E-05</v>
+        <v>7.433705661926398E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H36">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I36">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J36">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>34.798920030808</v>
+        <v>5.925893020635778</v>
       </c>
       <c r="R36">
-        <v>313.1902802772719</v>
+        <v>53.333037185722</v>
       </c>
       <c r="S36">
-        <v>8.257049300594704E-05</v>
+        <v>2.418154668678699E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001192539159863714</v>
+        <v>3.879255940687022E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.285862</v>
+        <v>0.09900866666666668</v>
       </c>
       <c r="H37">
-        <v>0.857586</v>
+        <v>0.297026</v>
       </c>
       <c r="I37">
-        <v>0.0004810100386305295</v>
+        <v>0.0002893140724378751</v>
       </c>
       <c r="J37">
-        <v>0.0005952793742971327</v>
+        <v>0.0003834100042975983</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>22.76482094983667</v>
+        <v>8.54072989387689</v>
       </c>
       <c r="R37">
-        <v>204.88338854853</v>
+        <v>76.86656904489199</v>
       </c>
       <c r="S37">
-        <v>5.401611565404895E-05</v>
+        <v>3.485180342419737E-05</v>
       </c>
       <c r="T37">
-        <v>7.801374417922058E-05</v>
+        <v>5.59100156942599E-05</v>
       </c>
     </row>
   </sheetData>
